--- a/section2/AK_Excel_Payments_Activity.xlsx
+++ b/section2/AK_Excel_Payments_Activity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamr\Code\SavvyCoders\Homework\section2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847FA319-88DA-4946-9AE9-E98E0CE213A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D5066-0A4C-443E-9EB5-3DB6AA0531AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -876,7 +876,7 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -970,7 +970,6 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -982,355 +981,7 @@
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Style 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="133">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
@@ -1586,6 +1237,12 @@
     <dxf>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1618,7 +1275,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PivotTable_exercise.xlsx]Payments!PivotTable1</c:name>
+    <c:name>[AK_Excel_Payments_Activity.xlsx]Payments!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5313,7 +4970,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7DB704A0-17E6-43B2-9482-467BB095E57E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7DB704A0-17E6-43B2-9482-467BB095E57E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField numFmtId="14" showAll="0"/>
@@ -5415,7 +5072,7 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="112">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="1">
@@ -5424,7 +5081,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="113">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="1">
@@ -5433,10 +5090,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="16">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5451,7 +5108,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5464,7 +5121,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3BC0711-470F-450F-A847-034927F8F84E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3BC0711-470F-450F-A847-034927F8F84E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField numFmtId="14" showAll="0">
@@ -5668,14 +5325,14 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="117">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5692,7 +5349,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{399D058A-4013-49A0-815E-10CE1742538B}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{399D058A-4013-49A0-815E-10CE1742538B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField numFmtId="14" showAll="0"/>
@@ -5950,21 +5607,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4A66BD9-E71C-472D-9146-E8ED3A615199}" name="ExpTable" displayName="ExpTable" ref="A2:I210" totalsRowShown="0" headerRowDxfId="130" dataDxfId="128" headerRowBorderDxfId="129" tableBorderDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4A66BD9-E71C-472D-9146-E8ED3A615199}" name="ExpTable" displayName="ExpTable" ref="A2:I210" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A2:I210" xr:uid="{E4A66BD9-E71C-472D-9146-E8ED3A615199}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I210">
     <sortCondition ref="B2:B210"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BB152757-64B9-49DC-89EA-51A4134B0B8B}" name="Document Date" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{AD987F59-87AB-4D4B-BA75-418731AD4610}" name="Supplier" dataDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{625C620C-D687-4232-97E4-3D379589FBA1}" name="Reference" dataDxfId="124"/>
-    <tableColumn id="4" xr3:uid="{4AF53E85-DD12-4472-A963-3723AF751108}" name="Description" dataDxfId="123"/>
-    <tableColumn id="5" xr3:uid="{D8398EEE-25DD-4D30-9F05-B53FD6C3BBC7}" name="Tax Inclusive Amount" dataDxfId="122" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{A90E74C1-DA76-4848-B7B9-0B7967D2192D}" name="Tax Code" dataDxfId="121"/>
-    <tableColumn id="7" xr3:uid="{A2806A42-6552-45B4-8F2A-A186B3E4181A}" name="Bank Code" dataDxfId="120"/>
-    <tableColumn id="8" xr3:uid="{373A1BCE-7B81-4266-A652-E7796B0D1603}" name="Account Code" dataDxfId="119"/>
-    <tableColumn id="9" xr3:uid="{22386535-409D-4CD1-9FBB-9A2E1408FF3E}" name="Payment Date" dataDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{BB152757-64B9-49DC-89EA-51A4134B0B8B}" name="Document Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{AD987F59-87AB-4D4B-BA75-418731AD4610}" name="Supplier" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{625C620C-D687-4232-97E4-3D379589FBA1}" name="Reference" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{4AF53E85-DD12-4472-A963-3723AF751108}" name="Description" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{D8398EEE-25DD-4D30-9F05-B53FD6C3BBC7}" name="Tax Inclusive Amount" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{A90E74C1-DA76-4848-B7B9-0B7967D2192D}" name="Tax Code" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{A2806A42-6552-45B4-8F2A-A186B3E4181A}" name="Bank Code" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{373A1BCE-7B81-4266-A652-E7796B0D1603}" name="Account Code" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{22386535-409D-4CD1-9FBB-9A2E1408FF3E}" name="Payment Date" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6418,13 +6075,12 @@
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6447,7 +6103,7 @@
       <c r="A5" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5">
         <v>30301.25</v>
       </c>
     </row>
@@ -6455,7 +6111,7 @@
       <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6">
         <v>30270.25</v>
       </c>
     </row>
@@ -6463,7 +6119,7 @@
       <c r="A7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7">
         <v>35</v>
       </c>
     </row>
@@ -6471,7 +6127,7 @@
       <c r="A8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8">
         <v>-4</v>
       </c>
     </row>
@@ -6479,7 +6135,7 @@
       <c r="A9" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9">
         <v>34664</v>
       </c>
     </row>
@@ -6487,7 +6143,7 @@
       <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10">
         <v>34624</v>
       </c>
     </row>
@@ -6495,7 +6151,7 @@
       <c r="A11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11">
         <v>35</v>
       </c>
     </row>
@@ -6503,7 +6159,7 @@
       <c r="A12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12">
         <v>5</v>
       </c>
     </row>
